--- a/Unit_Test_Plan_v0.1.xlsx
+++ b/Unit_Test_Plan_v0.1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Sl: No:</t>
   </si>
@@ -47,33 +47,99 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>T_DATA_VALID_01</t>
-  </si>
-  <si>
-    <t>Execute the data cleaning function with an income field containing non-numeric characters.</t>
-  </si>
-  <si>
-    <t>Income field contains invalid formatting symbols.</t>
-  </si>
-  <si>
-    <t>Function returns a clean, float value (e.g., 100000.00) and logs a warning.</t>
-  </si>
-  <si>
-    <t>Pass. Returned 100000.00; warning log verified.</t>
-  </si>
-  <si>
-    <t>T_MODEL_LOW_RISK</t>
-  </si>
-  <si>
-    <t>Send a sample payload of a financially strong applicant (High Credit Score, Low Debt-to-Income).</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
+    <t>TC_Input_Cleaning</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Submit the Streamlit form with a non-numeric character (e.g., '100k') in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Applicant Income</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> field.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Input cleansing function executes and converts the value to a clean, float value (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$100000.00$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pass. Returned </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$100000.00$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>; warning log verified.</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_Model_Low_Risk</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Send a sample payload of a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>financially strong applicant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (High Credit Score, Low Debt-to-Income, etc.).</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Applicant data corresponds to a pre-defined </t>
     </r>
     <r>
@@ -96,11 +162,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">Model API returns a </t>
     </r>
     <r>
@@ -110,15 +171,15 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>Risk Score &lt; 45</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> (low PD) and </t>
+      <t>Risk Score $&lt; 45$ (low PD)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
     </r>
     <r>
       <rPr>
@@ -127,7 +188,164 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>Decision: Approve</t>
+      <t>Decision: Approve.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pass. Model returned </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Risk Score 38</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Decision: Approve.</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_Model_High_Risk</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Send a sample payload of a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>financially weak applicant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (Low Credit Score, High Default History).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Applicant data corresponds to a pre-defined </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>High-Risk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> profile.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Model API returns a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Risk Score $&gt; 75$ (high PD)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Decision: Reject.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pass. Model returned </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Risk Score 81</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Decision: Reject.</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_Encoding_Dependents</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Submit the form with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Dependents = '3+'</t>
     </r>
     <r>
       <rPr>
@@ -140,12 +358,68 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Pass. Model returned </t>
+      <t>The preprocessing pipeline correctly maps '3+' to the numerical dummy variable (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$1$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in the '3+' column, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$0$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> elsewhere).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pass. Encoded vector shows </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$1$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for the '3+' feature.</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_Log_Handling</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Submit the form with </t>
     </r>
     <r>
       <rPr>
@@ -154,15 +428,50 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>Risk Score 38</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
+      <t>Coapplicant Income = 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The preprocessing pipeline applies </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$\log(x+1)$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> or conditional log handling to avoid divide by zero errors.</t>
+    </r>
+  </si>
+  <si>
+    <t>Pass. Log transform executed without a runtime error.</t>
+  </si>
+  <si>
+    <t>TC_ML_Accuracy</t>
+  </si>
+  <si>
+    <t>Evaluate the final Random Forest Model on the hold-out test set.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Accuracy is </t>
     </r>
     <r>
       <rPr>
@@ -171,280 +480,22 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>Decision: Approve</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>T_MODEL_HIGH_RISK</t>
-  </si>
-  <si>
-    <t>Send a sample payload of a financially weak applicant (Low Credit Score, High Default History).</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Applicant data corresponds to a pre-defined </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>High-Risk</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> profile.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Model API returns a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Risk Score &gt; 75</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> (high PD) and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Decision: Reject</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Pass. Model returned </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Risk Score 81</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Decision: Reject</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>T_AML_API_FAIL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Mock the external AML API to return a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>status 500 (Server Error)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>AML Check is executed and the external service is unavailable.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">The application should not crash, but log the error and flag the application for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Manual Review</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Pass.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Application remained stable (did not crash). Log file verified for the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>500 error</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">. Application status updated to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Manual Review</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>T_DECISION_LOGIC_01</t>
-  </si>
-  <si>
-    <t>Call the Final Decision Logic (US_07) with Risk Score 50 and Loan Amount $500,000 (a policy exception).</t>
-  </si>
-  <si>
-    <t>Risk Score is within acceptable range, but loan amount exceeds automated limit ($200k).</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Final Decision is set to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"Refer to Loan Officer"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> instead of "Approve".</t>
-    </r>
+      <t>greater than $77\%$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (based on your results).</t>
+    </r>
+  </si>
+  <si>
+    <t>$\geq 77\%$</t>
+  </si>
+  <si>
+    <t>$77.92\%$</t>
   </si>
 </sst>
 </file>
@@ -479,162 +530,162 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -836,7 +887,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -855,6 +906,21 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -960,169 +1026,163 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1444,13 +1504,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.14285714285714" customWidth="1"/>
     <col min="2" max="2" width="14.2857142857143" customWidth="1"/>
@@ -1459,7 +1519,7 @@
     <col min="6" max="6" width="15.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" spans="1:6">
+    <row r="1" ht="31.5" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1478,106 +1538,165 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
-    <row r="2" ht="110.25" spans="1:6">
-      <c r="A2" s="2">
+    <row r="2" ht="102" spans="1:10">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" ht="102" spans="1:10">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
-    <row r="3" ht="89.25" spans="1:6">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5" t="s">
+    <row r="4" ht="89.25" spans="1:10">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
-    <row r="4" ht="89.25" spans="1:6">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="5" t="s">
+    <row r="5" ht="89.25" spans="1:10">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
-    <row r="5" ht="102" spans="1:6">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4" t="s">
+    <row r="6" ht="90" spans="1:10">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
-    <row r="6" ht="114.75" spans="1:6">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="4" t="s">
+    <row r="7" ht="51.75" spans="1:10">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
